--- a/doubleSrcs/results/KFRenter Double Tests.xlsx
+++ b/doubleSrcs/results/KFRenter Double Tests.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
   <si>
     <t xml:space="preserve">Kalman Filter ReEntry</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t xml:space="preserve">Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">second run</t>
   </si>
 </sst>
 </file>
@@ -61,6 +64,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -146,15 +150,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -434,6 +438,263 @@
       <c r="G12" s="1" t="n">
         <f aca="false">AVERAGE(B12:F12)</f>
         <v>33039.2</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>6360</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>6240</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>6476</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>6550</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>6594</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <f aca="false">AVERAGE(B20:F20)</f>
+        <v>6444</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>16832</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>16846</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>16828</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>16972</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>16816</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <f aca="false">AVERAGE(B21:F21)</f>
+        <v>16858.8</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>2544</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>2420</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>2292</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>2398</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>2342</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <f aca="false">AVERAGE(B22:F22)</f>
+        <v>2399.2</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>1332</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>1166</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>1190</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>1554</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>1232</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <f aca="false">AVERAGE(B23:F23)</f>
+        <v>1294.8</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>2762</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>2872</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>2746</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>2888</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>2896</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <f aca="false">AVERAGE(B24:F24)</f>
+        <v>2832.8</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>3068</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>2920</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>3016</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>3030</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>3064</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <f aca="false">AVERAGE(B25:F25)</f>
+        <v>3019.6</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <f aca="false">AVERAGE(B26:F26)</f>
+        <v>309.6</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>3424</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>3502</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>3536</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>3400</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>3540</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <f aca="false">AVERAGE(B27:F27)</f>
+        <v>3480.4</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <f aca="false">SUM(B20:B27)</f>
+        <v>36650</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <f aca="false">SUM(C20:C27)</f>
+        <v>36256</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <f aca="false">SUM(D20:D27)</f>
+        <v>36376</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <f aca="false">SUM(E20:E27)</f>
+        <v>37128</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <f aca="false">SUM(F20:F27)</f>
+        <v>36786</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <f aca="false">AVERAGE(B28:F28)</f>
+        <v>36639.2</v>
       </c>
     </row>
   </sheetData>
